--- a/DesignDocuments/数值系统.xlsx
+++ b/DesignDocuments/数值系统.xlsx
@@ -33,6 +33,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -42,6 +43,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,6 +59,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -66,6 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -78,38 +82,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="165">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
@@ -131,262 +135,258 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>普通部位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>精力耗尽恢复延迟时间（s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>地面精力恢复速度（/s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRunOutRecoverDelay</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverRate_Ground</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponActionGroup</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -399,67 +399,67 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Animation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ActionATK_Factor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -481,99 +481,99 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>状态要求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>招式打断优先级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ActionInterruptPriority</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>InputOrder</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>招式指令</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -589,11 +589,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -609,23 +609,23 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -641,7 +641,7 @@
       </rPr>
       <t>Ani</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -657,15 +657,15 @@
       </rPr>
       <t>tatusQequired</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -681,15 +681,15 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>勾刃命中伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>勾刃收回伤害</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -705,24 +705,150 @@
       </rPr>
       <t>adeHookedATK</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawATK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动相关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中攻击状态最大下坠速度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中常规最大下坠速度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中常规下坠加速度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中攻击状态下坠加速度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropSpeedInAir_Normal_Max</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropSpeedInAir_WhileATK_Max</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropAccelarationInAir_Normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropAccelarationInAir_WhileATK</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画相关</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬直动画序列</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击招式组编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>地面近战：1；空中近战：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2；地面远程：3；空中远程：4；</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboClass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击招式序号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboIndex</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>~N，表示处于本招式处于该种连击的第几个</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面近战招式组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中近战招式组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面远程招式组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中远程招式组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -757,6 +883,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -764,6 +891,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -806,33 +934,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -841,11 +993,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -870,13 +1019,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1211,13 +1360,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1227,10 +1376,11 @@
     <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="126.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1246,15 +1396,18 @@
       <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="F1" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1262,9 +1415,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1277,9 +1430,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
+    <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1290,9 +1443,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1303,10 +1456,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="10" t="s">
+    <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1316,13 +1469,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7" t="s">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1335,9 +1488,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
+    <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1348,9 +1501,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
+    <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1361,592 +1514,754 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7" t="s">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7" t="s">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="B19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:5" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="1" t="s">
+      <c r="C26" s="12"/>
+      <c r="D26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E26" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7" t="s">
+    <row r="27" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E27" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7" t="s">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E29" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="1" t="s">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E30" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="1" t="s">
+    <row r="31" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E31" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="6"/>
-    </row>
-    <row r="29" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="6"/>
-    </row>
-    <row r="31" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="7"/>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
         <v>100</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="6"/>
-    </row>
-    <row r="33" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="D54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56"/>
+    </row>
+    <row r="57" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E60" s="6"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E61" s="6"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E63" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45"/>
-    </row>
-    <row r="46" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C64" s="16"/>
+      <c r="D64" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="C68" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="C69" s="20"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="6"/>
+    </row>
+    <row r="70" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="6"/>
+    </row>
+    <row r="71" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="6"/>
+    </row>
+    <row r="72" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="10"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="6"/>
-    </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E50" s="6"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="B51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="B52" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="B53" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="B54" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B58" s="7"/>
-    </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="B59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="B60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="B61" s="7"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="B63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="B64" s="7"/>
-    </row>
-    <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="B65" s="7"/>
-    </row>
-    <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="B66" s="7"/>
-    </row>
-    <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="B69" s="4"/>
-    </row>
-    <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="B73" s="4"/>
-    </row>
-    <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="B74" s="4"/>
-    </row>
-    <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8"/>
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="12"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="4"/>
+    </row>
+    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="4"/>
+    </row>
+    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="4"/>
+    </row>
+    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A58:A75"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A19:A42"/>
-    <mergeCell ref="A43:A57"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="B19:C19"/>
+  <mergeCells count="28">
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B48:B52"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="A75:A92"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="A26:A53"/>
+    <mergeCell ref="A54:A74"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B21:B24"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1991,13 +2306,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2006,8 +2321,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2021,8 +2336,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2034,10 +2349,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
@@ -2047,12 +2362,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2066,8 +2381,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
@@ -2079,283 +2394,283 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
+      <c r="A11" s="14"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="14"/>
     </row>
     <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7"/>
+    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E20" s="1">
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="7"/>
+    <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="1">
         <v>1.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>142</v>
+      <c r="A26" s="14"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="E26" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>143</v>
+      <c r="A27" s="14"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="E27" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="12"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="7"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="12"/>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="14"/>
     </row>
     <row r="31" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>132</v>
+      <c r="D31" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
+      <c r="A32" s="14"/>
       <c r="C32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E32" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="17"/>
+      <c r="D34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E35" s="13">
+      <c r="E35" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
+      <c r="A36" s="14"/>
     </row>
     <row r="37" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2389,7 +2704,7 @@
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B2:C2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2406,7 +2721,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2419,7 +2734,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2434,7 +2749,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2449,7 +2764,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2464,7 +2779,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/数值系统.xlsx
+++ b/DesignDocuments/数值系统.xlsx
@@ -82,38 +82,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="176">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
@@ -135,258 +135,258 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>普通部位</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>精力耗尽恢复延迟时间（s）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>地面精力恢复速度（/s）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRunOutRecoverDelay</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverRate_Ground</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -399,67 +399,63 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>Animation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ActionATK_Factor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>特殊动作（跳跃/冲刺/收回勾刃）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -481,99 +477,99 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>状态要求</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>招式打断优先级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ActionInterruptPriority</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>InputOrder</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>招式指令</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -589,11 +585,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -609,23 +605,23 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -641,31 +637,15 @@
       </rPr>
       <t>Ani</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tatusQequired</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -681,15 +661,15 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>勾刃命中伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>勾刃收回伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -705,67 +685,75 @@
       </rPr>
       <t>adeHookedATK</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawATK</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>动画相关</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画序列</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>连击招式组编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面近战招式组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中近战招式组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>地面远程招式组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>空中远程招式组</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>地面近战：1；空中近战：</t>
+      <t>M</t>
     </r>
     <r>
       <rPr>
@@ -775,21 +763,105 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>2；地面远程：3；空中远程：4；</t>
+      <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboClass</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>连击招式序号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboIndex</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeleeAction_InAir_Group</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistantAction_OnTheGround_Group</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DistantAction_InAir_Group</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>taggerAniGroup</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tatusRequired</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>招式空中默认最大使用次数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionTimesDefult</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。比如：收回勾刃。增加一次空中跳跃次数，1次远程、进程蓄力空中攻击，3次远程、近程普通空中攻击。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回勾刃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬直</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>可取消区间</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ancelRange</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -803,38 +875,53 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>~N，表示处于本招式处于该种连击的第几个</t>
+      <t>.7-1</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面近战招式组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中近战招式组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>地面远程招式组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>空中远程招式组</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲刺距离</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃最大高度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>mpHeight_Max</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -934,33 +1021,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -969,32 +1065,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1019,13 +1127,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>693420</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>518160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1360,13 +1468,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1484,7 @@
     <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="126.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="126.77734375" style="23" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1397,17 +1505,17 @@
         <v>31</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1416,8 +1524,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1431,8 +1539,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1444,8 +1552,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1457,8 +1565,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
@@ -1470,12 +1578,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1489,8 +1597,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1502,8 +1610,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1515,12 +1623,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1534,8 +1642,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1547,721 +1655,804 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="12"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E16" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="13"/>
+    <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E17" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="13"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E18" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="13"/>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E19" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="18" t="s">
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="D31" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="14" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="12" t="s">
+      <c r="D32" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="24"/>
+    </row>
+    <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="1">
         <v>8</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="12"/>
-    </row>
-    <row r="29" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E33" s="1">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:6" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:6" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:6" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="19"/>
-    </row>
-    <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>103</v>
+      <c r="D40" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="E40" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="42" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="1">
+      <c r="A41" s="18"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="6"/>
-    </row>
-    <row r="44" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="12"/>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="17" t="s">
+        <v>117</v>
+      </c>
       <c r="C44" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="12"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="12"/>
-    </row>
-    <row r="48" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="8" t="s">
+      <c r="D50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52"/>
+    </row>
+    <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="17"/>
+      <c r="D55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="6"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="E57" s="6"/>
+    </row>
+    <row r="58" spans="1:6" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="17"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="23"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="17"/>
+    </row>
+    <row r="61" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="19"/>
+      <c r="D61" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="E49" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E51" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="12"/>
-    </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-    </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E54" s="1">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E56"/>
-    </row>
-    <row r="57" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E59" s="1">
+      <c r="C62" s="16"/>
+      <c r="D62" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F62" s="23"/>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="17"/>
+      <c r="D63" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="6"/>
-    </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="6"/>
-    </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="12"/>
-    </row>
-    <row r="63" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="15"/>
-      <c r="D63" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
+      <c r="F63" s="23"/>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
       <c r="B64" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C64" s="16"/>
+        <v>132</v>
+      </c>
+      <c r="C64" s="17"/>
       <c r="D64" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E64" s="2">
-        <v>0.5</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="12"/>
-      <c r="D65" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E65" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="6"/>
-    </row>
-    <row r="67" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="E67" s="6"/>
-      <c r="F67" s="19" t="s">
-        <v>156</v>
-      </c>
+      <c r="A65" s="18"/>
+      <c r="B65" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" s="17"/>
+      <c r="D65" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="24"/>
+    </row>
+    <row r="66" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+    </row>
+    <row r="67" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="23"/>
     </row>
     <row r="68" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="C68" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="E68" s="6"/>
-      <c r="F68" s="19" t="s">
+      <c r="A68" s="18"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="23"/>
+    </row>
+    <row r="69" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="23"/>
+    </row>
+    <row r="70" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="23"/>
+    </row>
+    <row r="71" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+      <c r="B72" s="10"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="18"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="E74" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A75" s="18"/>
+      <c r="B75" s="17"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D76" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="17"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A79" s="18"/>
+      <c r="B79" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="17"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="17"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
+      <c r="B82" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A83" s="18"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="D83" s="22" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="6"/>
-    </row>
-    <row r="70" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="6"/>
-    </row>
-    <row r="71" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="6"/>
-    </row>
-    <row r="72" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="6"/>
-    </row>
-    <row r="73" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="6"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="10"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="12"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="12"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="12"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="12"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="12"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="12"/>
-    </row>
-    <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="12"/>
-    </row>
-    <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="12"/>
-    </row>
-    <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="12"/>
-    </row>
-    <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="4"/>
-    </row>
-    <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
+    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A84" s="18"/>
+      <c r="B84" s="17"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="18"/>
       <c r="B85" s="4"/>
     </row>
-    <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
+    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
       <c r="B86" s="4"/>
     </row>
-    <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="14"/>
+    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A87" s="18"/>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
+    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
+    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="14"/>
-      <c r="B90" s="4"/>
-    </row>
-    <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
-      <c r="B91" s="4"/>
-    </row>
-    <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
+    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B82:B84"/>
     <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B75:B77"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B48:B52"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="A75:A92"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="A26:A53"/>
-    <mergeCell ref="A54:A74"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A49"/>
+    <mergeCell ref="A50:A72"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B36:B43"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A73:A90"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B44:B48"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2273,10 +2464,10 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -2306,13 +2497,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2321,8 +2512,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="17" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2336,8 +2527,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2349,10 +2540,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>39</v>
@@ -2362,12 +2553,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="17"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2381,8 +2572,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
@@ -2394,30 +2585,30 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="18"/>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+      <c r="A12" s="18"/>
     </row>
     <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="17" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2431,8 +2622,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2444,8 +2635,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2457,8 +2648,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2470,8 +2661,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2483,16 +2674,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2506,8 +2697,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2519,8 +2710,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2532,8 +2723,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2545,8 +2736,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2558,8 +2749,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
@@ -2571,61 +2762,63 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="E26" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="E27" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="17"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
+      <c r="A30" s="18"/>
     </row>
     <row r="31" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="17" t="s">
         <v>19</v>
       </c>
+      <c r="C31" s="17"/>
       <c r="D31" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="C32" s="1" t="s">
+    <row r="32" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="17" t="s">
         <v>37</v>
       </c>
+      <c r="C32" s="17"/>
       <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
@@ -2633,11 +2826,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="C33" s="1" t="s">
+    <row r="33" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="17" t="s">
         <v>32</v>
       </c>
+      <c r="C33" s="17"/>
       <c r="D33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2645,40 +2839,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="9" t="s">
         <v>114</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="9" t="s">
-        <v>115</v>
       </c>
       <c r="E35" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+    </row>
+    <row r="42" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+    </row>
+    <row r="43" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+    </row>
     <row r="44" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2691,9 +2909,8 @@
     <row r="53" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="54" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
     <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A31:A36"/>
     <mergeCell ref="A13:A30"/>
     <mergeCell ref="B13:B19"/>
     <mergeCell ref="B3:B6"/>
@@ -2703,8 +2920,13 @@
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A31:A43"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2721,7 +2943,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2734,7 +2956,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2749,7 +2971,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2764,7 +2986,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2779,7 +3001,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DesignDocuments/数值系统.xlsx
+++ b/DesignDocuments/数值系统.xlsx
@@ -82,38 +82,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="177">
   <si>
     <t>类别1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>类别2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>主角自身</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>远程蓄力伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>怪物自身</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>近战普攻伤害</t>
@@ -135,258 +135,258 @@
   </si>
   <si>
     <t>刀刃悬浮修正系数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>招式属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>HP_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>生命上限</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>招式破绽区间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>招式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蓄力招式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>蓄力伤害倍数增长曲线</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>弱点</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>怪物受击修正</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>普通部位</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>韧性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Toughness</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRecoverRate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>韧性相关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
   </si>
   <si>
     <t>基础削刃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>削刃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>是否霸体</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessRefreshDelay</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>基础伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>攻击相关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>精力相关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>精力耗尽恢复延迟时间（s）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>韧性恢复速度（/s）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>地面精力恢复速度（/s）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>精力上限</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRunOutRecoverDelay</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武器削刃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ToughnessCut_Weapon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverRate_Ground</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecoverFactor_BladeWithdraw</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃提供的精力恢复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃恢复精力系数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>近战蓄力最大伤害倍数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>精力消耗/恢复</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Stamina_CostRecover</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>修正系数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATKMultiplier_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Min</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ChargeTime_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ChargeATK_Multiplier_Curve</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武器招式组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>武器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Weapon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ChargedDistantATK_Factor_Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Factor_Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DistantATK_Factor_Vulnerability</t>
@@ -399,63 +399,63 @@
   </si>
   <si>
     <t>ChargedMeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MeleeATK_Factor_Vulnerability</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>StaminaRecover_BladeWithdraw</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>IsStoic</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>招式动画</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Animation</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>行为树文件</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BehaviorTree</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BasicATK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BasicToughnessCut</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ActionATK_Factor</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>招式伤害修正系数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>招式削刃修正系数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ActionToughnessCutFactor</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ActionAKTFactor</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>发出飞刀速度曲线</t>
@@ -477,99 +477,99 @@
   </si>
   <si>
     <t>BladeProjectSpeed_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BladeProjectSpeed_Curve</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawSpeed_Curve</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞刀</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeATK_Rate</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞刀最大悬浮时间（s）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最小蓄力时长（s）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最大蓄力时长（s）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>状态要求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>招式状态转换</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>招式打断优先级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ActionInterruptPriority</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>连击额外伤害累增量</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ComboExtraAccumulativeDMG</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>连击</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最大连击次数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ComboInterval_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ComboDuration_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>韧性刷新滞后时长（s）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最大连击时长（s）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>InputOrder</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>招式指令</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最大连击间隔（s）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -585,11 +585,11 @@
       </rPr>
       <t>mboTime_Max</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>击退距离</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -605,23 +605,23 @@
       </rPr>
       <t>BackDistance</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>是否可触发破绽硬直</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ActionSoftSpotRange</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>EnabeSoftSpotTrigger</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>触发的破绽硬直动画</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -637,15 +637,15 @@
       </rPr>
       <t>Ani</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>飞刀悬浮距离</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FloatingBladeDuration_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -661,15 +661,15 @@
       </rPr>
       <t>Distance</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>勾刃命中伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>勾刃收回伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -685,71 +685,71 @@
       </rPr>
       <t>adeHookedATK</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BladeWithdrawATK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>运动相关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态最大下坠速度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中常规最大下坠速度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中常规下坠加速度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中攻击状态下坠加速度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_Normal_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DropSpeedInAir_WhileATK_Max</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_Normal</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DropAccelarationInAir_WhileATK</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>硬直动画序列</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>地面近战招式组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中近战招式组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>地面远程招式组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>空中远程招式组</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -765,19 +765,19 @@
       </rPr>
       <t>eleeAction_OnTheGround_Group</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MeleeAction_InAir_Group</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_OnTheGround_Group</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DistantAction_InAir_Group</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -793,7 +793,7 @@
       </rPr>
       <t>taggerAniGroup</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -809,43 +809,43 @@
       </rPr>
       <t>tatusRequired</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>招式空中默认最大使用次数</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>ActionTimesDefult</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>当角色处于空中时，初始支持使用本招式的次数。当角色接触地面之后，本使用次数重新补满。另外，在执行一些特殊行动时，次数会获得补充。比如：收回勾刃。增加一次空中跳跃次数，1次远程、进程蓄力空中攻击，3次远程、近程普通空中攻击。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>特殊动作（跳跃/冲刺/收回勾刃/硬直）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>跳跃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>冲刺</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>收回勾刃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>硬直</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>可取消区间</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -861,7 +861,7 @@
       </rPr>
       <t>ancelRange</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -877,15 +877,15 @@
       </rPr>
       <t>.7-1</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>冲刺距离</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>跳跃最大高度</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -901,20 +901,31 @@
       </rPr>
       <t>mpHeight_Max</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>可取消区间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1021,24 +1032,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1047,61 +1109,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1474,7 +1488,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomRight" activeCell="B65" sqref="B65:C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.25"/>
@@ -1484,7 +1498,7 @@
     <col min="3" max="3" width="29.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="126.77734375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="126.77734375" style="17" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -1509,13 +1523,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,8 +1538,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="21" t="s">
         <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1539,8 +1553,8 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="1" t="s">
         <v>45</v>
       </c>
@@ -1552,8 +1566,8 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1565,8 +1579,8 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
@@ -1578,12 +1592,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1597,8 +1611,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1610,8 +1624,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="17"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1623,12 +1637,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1642,8 +1656,8 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="1" t="s">
         <v>40</v>
       </c>
@@ -1655,23 +1669,23 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="25" t="s">
         <v>141</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -1685,8 +1699,8 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="11" t="s">
         <v>144</v>
       </c>
@@ -1696,11 +1710,11 @@
       <c r="E17" s="7">
         <v>5</v>
       </c>
-      <c r="F17" s="23"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="11" t="s">
         <v>142</v>
       </c>
@@ -1710,11 +1724,11 @@
       <c r="E18" s="7">
         <v>3</v>
       </c>
-      <c r="F18" s="23"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" s="7" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="11" t="s">
         <v>145</v>
       </c>
@@ -1724,23 +1738,23 @@
       <c r="E19" s="7">
         <v>3</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="17"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="1" t="s">
         <v>57</v>
       </c>
@@ -1749,8 +1763,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="21" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1764,12 +1778,12 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1783,8 +1797,8 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1796,8 +1810,8 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
@@ -1809,8 +1823,8 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="1" t="s">
         <v>99</v>
       </c>
@@ -1822,8 +1836,8 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="1" t="s">
         <v>100</v>
       </c>
@@ -1835,69 +1849,69 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="21"/>
     </row>
     <row r="31" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="21" t="s">
         <v>70</v>
       </c>
       <c r="C31" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="16" t="s">
         <v>156</v>
       </c>
       <c r="E31" s="6"/>
     </row>
     <row r="32" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="16" t="s">
         <v>158</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="23"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="17"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="16" t="s">
         <v>157</v>
       </c>
       <c r="E33" s="6"/>
-      <c r="F33" s="23"/>
+      <c r="F33" s="17"/>
     </row>
     <row r="34" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="16" t="s">
         <v>159</v>
       </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="23"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="6"/>
-      <c r="F35" s="24"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="17" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="21" t="s">
         <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1911,8 +1925,8 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="1" t="s">
         <v>96</v>
       </c>
@@ -1922,8 +1936,8 @@
       <c r="E37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
-      <c r="B38" s="17"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="1" t="s">
         <v>97</v>
       </c>
@@ -1935,8 +1949,8 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
-      <c r="B39" s="17"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="1" t="s">
         <v>98</v>
       </c>
@@ -1946,8 +1960,8 @@
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="17"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="1" t="s">
         <v>108</v>
       </c>
@@ -1959,8 +1973,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
-      <c r="B41" s="17"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="8" t="s">
         <v>134</v>
       </c>
@@ -1972,16 +1986,16 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="17"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
-      <c r="B43" s="17"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18"/>
-      <c r="B44" s="17" t="s">
+      <c r="A44" s="23"/>
+      <c r="B44" s="21" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1995,8 +2009,8 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
-      <c r="B45" s="17"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="1" t="s">
         <v>118</v>
       </c>
@@ -2008,8 +2022,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
-      <c r="B46" s="17"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="1" t="s">
         <v>122</v>
       </c>
@@ -2021,8 +2035,8 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="18"/>
-      <c r="B47" s="17"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="8" t="s">
         <v>125</v>
       </c>
@@ -2034,17 +2048,17 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A48" s="18"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="18"/>
+      <c r="A49" s="23"/>
     </row>
     <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -2058,8 +2072,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="18"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="1" t="s">
         <v>110</v>
       </c>
@@ -2071,8 +2085,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="18"/>
-      <c r="B52" s="17"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="1" t="s">
         <v>23</v>
       </c>
@@ -2082,8 +2096,8 @@
       <c r="E52"/>
     </row>
     <row r="53" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18"/>
-      <c r="B53" s="17" t="s">
+      <c r="A53" s="23"/>
+      <c r="B53" s="21" t="s">
         <v>63</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2097,8 +2111,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A54" s="18"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="1" t="s">
         <v>92</v>
       </c>
@@ -2110,11 +2124,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="17" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="17"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="1" t="s">
         <v>61</v>
       </c>
@@ -2123,8 +2137,8 @@
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
-      <c r="B56" s="17" t="s">
+      <c r="A56" s="23"/>
+      <c r="B56" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2136,47 +2150,47 @@
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="16" t="s">
         <v>161</v>
       </c>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:6" s="12" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="22" t="s">
+      <c r="A58" s="23"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="16" t="s">
         <v>163</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="19" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="12" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
-      <c r="B59" s="17"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="21"/>
       <c r="D59" s="13"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="23"/>
+      <c r="F59" s="17"/>
     </row>
     <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
-      <c r="B60" s="17"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
-      <c r="B61" s="19" t="s">
+      <c r="A61" s="23"/>
+      <c r="B61" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="19"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="9" t="s">
         <v>114</v>
       </c>
@@ -2185,130 +2199,130 @@
       </c>
     </row>
     <row r="62" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
-      <c r="B62" s="16" t="s">
+      <c r="A62" s="23"/>
+      <c r="B62" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="16"/>
+      <c r="C62" s="24"/>
       <c r="D62" s="8" t="s">
         <v>128</v>
       </c>
       <c r="E62" s="2">
         <v>0.5</v>
       </c>
-      <c r="F62" s="23"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
-      <c r="B63" s="16" t="s">
+      <c r="A63" s="23"/>
+      <c r="B63" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="17"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="8" t="s">
         <v>131</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
       </c>
-      <c r="F63" s="23"/>
+      <c r="F63" s="17"/>
     </row>
     <row r="64" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="18"/>
-      <c r="B64" s="16" t="s">
+      <c r="A64" s="23"/>
+      <c r="B64" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="17"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="8" t="s">
         <v>133</v>
       </c>
       <c r="E64" s="6"/>
-      <c r="F64" s="23"/>
+      <c r="F64" s="17"/>
     </row>
     <row r="65" spans="1:6" s="2" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18"/>
-      <c r="B65" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="22" t="s">
+      <c r="A65" s="23"/>
+      <c r="B65" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E65" s="27" t="s">
+      <c r="E65" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="F65" s="24"/>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
+      <c r="A66" s="23"/>
       <c r="C66" s="14"/>
       <c r="D66" s="14"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
+      <c r="A67" s="23"/>
       <c r="C67" s="15"/>
       <c r="D67" s="14"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="23"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="17"/>
     </row>
     <row r="68" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
+      <c r="A68" s="23"/>
       <c r="C68" s="15"/>
       <c r="D68" s="14"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="23"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="17"/>
     </row>
     <row r="69" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
+      <c r="A69" s="23"/>
       <c r="C69" s="15"/>
       <c r="D69" s="14"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="23"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="17"/>
     </row>
     <row r="70" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
       <c r="D70" s="14"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="23"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="17"/>
     </row>
     <row r="71" spans="1:6" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="18"/>
+      <c r="A71" s="23"/>
       <c r="C71" s="15"/>
       <c r="D71" s="14"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="23"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="17"/>
     </row>
     <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A72" s="18"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="10"/>
     </row>
     <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E73" s="27" t="s">
+      <c r="E73" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A74" s="18"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="22" t="s">
+      <c r="A74" s="23"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D74" s="16" t="s">
         <v>175</v>
       </c>
       <c r="E74" s="1">
@@ -2316,112 +2330,125 @@
       </c>
     </row>
     <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="18"/>
-      <c r="B75" s="17"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="21"/>
     </row>
     <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A76" s="18"/>
-      <c r="B76" s="26" t="s">
+      <c r="A76" s="23"/>
+      <c r="B76" s="22" t="s">
         <v>167</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D76" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E76" s="27" t="s">
+      <c r="E76" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="22" t="s">
+      <c r="A77" s="23"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="17"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="21"/>
     </row>
     <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="26" t="s">
+      <c r="A79" s="23"/>
+      <c r="B79" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E79" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A80" s="18"/>
-      <c r="B80" s="17"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="21"/>
     </row>
     <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="17"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="21"/>
     </row>
     <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="26" t="s">
+      <c r="A82" s="23"/>
+      <c r="B82" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E82" s="27" t="s">
+      <c r="E82" s="20" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="17"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="D83" s="16" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="17"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="21"/>
     </row>
     <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A86" s="18"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
+      <c r="A88" s="23"/>
       <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
+      <c r="A89" s="23"/>
       <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
+      <c r="A90" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B31:B35"/>
+    <mergeCell ref="A73:A90"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B44:B48"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B82:B84"/>
     <mergeCell ref="B65:C65"/>
@@ -2438,21 +2465,8 @@
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="A73:A90"/>
-    <mergeCell ref="B76:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B44:B48"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2497,13 +2511,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
@@ -2512,8 +2526,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="21" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2527,8 +2541,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="1" t="s">
         <v>29</v>
       </c>
@@ -2540,8 +2554,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="1" t="s">
         <v>121</v>
       </c>
@@ -2553,12 +2567,12 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="21"/>
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="21" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2572,8 +2586,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
@@ -2585,30 +2599,30 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="23"/>
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="23"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="23"/>
     </row>
     <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2622,8 +2636,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2635,8 +2649,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2648,8 +2662,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2661,8 +2675,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
@@ -2674,16 +2688,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="21"/>
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="21"/>
     </row>
     <row r="20" spans="1:5" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="21" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -2697,8 +2711,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="1" t="s">
         <v>11</v>
       </c>
@@ -2710,8 +2724,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
@@ -2723,8 +2737,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
@@ -2736,8 +2750,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
@@ -2749,8 +2763,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
@@ -2762,8 +2776,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="17"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="8" t="s">
         <v>137</v>
       </c>
@@ -2775,8 +2789,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="17"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="8" t="s">
         <v>138</v>
       </c>
@@ -2788,24 +2802,24 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="21"/>
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
+      <c r="A30" s="23"/>
     </row>
     <row r="31" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="8" t="s">
         <v>130</v>
       </c>
@@ -2814,11 +2828,11 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,11 +2841,11 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="1" t="s">
         <v>91</v>
       </c>
@@ -2840,22 +2854,22 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="21" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C34" s="21"/>
+      <c r="C34" s="27"/>
       <c r="D34" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E34" s="6"/>
     </row>
     <row r="35" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="19"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="9" t="s">
         <v>114</v>
       </c>
@@ -2864,11 +2878,11 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18"/>
-      <c r="B36" s="16" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C36" s="16"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="13" t="s">
         <v>128</v>
       </c>
@@ -2877,25 +2891,25 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="18"/>
+      <c r="A37" s="23"/>
     </row>
     <row r="38" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18"/>
+      <c r="A38" s="23"/>
     </row>
     <row r="39" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18"/>
+      <c r="A39" s="23"/>
     </row>
     <row r="40" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
+      <c r="A40" s="23"/>
     </row>
     <row r="41" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18"/>
+      <c r="A41" s="23"/>
     </row>
     <row r="42" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
+      <c r="A42" s="23"/>
     </row>
     <row r="43" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18"/>
+      <c r="A43" s="23"/>
     </row>
     <row r="44" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2910,13 +2924,6 @@
     <row r="54" ht="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A30"/>
-    <mergeCell ref="B13:B19"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B20:B29"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B2:C2"/>
@@ -2925,8 +2932,15 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A30"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B20:B29"/>
+    <mergeCell ref="B9:C9"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -2943,7 +2957,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2956,7 +2970,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2971,7 +2985,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2986,7 +3000,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3001,7 +3015,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>